--- a/data/trans_camb/IP24_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP24_R-Habitat-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,58</t>
+          <t>-12,27</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,06</t>
+          <t>-7,53</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-8,15</t>
+          <t>-3,58</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-6,1</t>
+          <t>25,45</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-6,62</t>
+          <t>21,16</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-9,4</t>
+          <t>19,79</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-6,86</t>
+          <t>5,62</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-5,28</t>
+          <t>6,05</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-8,88</t>
+          <t>7,57</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,45; -1,08</t>
+          <t>-31,99; 6,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,65; 3,22</t>
+          <t>-26,38; 15,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,91; -2,2</t>
+          <t>-26,48; 24,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,89; 1,01</t>
+          <t>8,62; 46,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,58; -0,3</t>
+          <t>4,7; 41,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,35; -2,09</t>
+          <t>6,04; 37,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-11,47; -2,28</t>
+          <t>-7,07; 19,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,84; -0,93</t>
+          <t>-7,91; 22,18</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-13,7; -4,88</t>
+          <t>-6,61; 23,01</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-32,36%</t>
+          <t>-48,33%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-17,32%</t>
+          <t>-29,67%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-34,77%</t>
+          <t>-14,11%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-21,96%</t>
+          <t>809,53%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-23,84%</t>
+          <t>673,03%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-33,85%</t>
+          <t>629,55%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-26,89%</t>
+          <t>37,73%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-20,71%</t>
+          <t>40,63%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-34,82%</t>
+          <t>50,83%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-49,85; -3,5</t>
+          <t>-90,9; 57,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-36,27; 16,52</t>
+          <t>-77,67; 130,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-53,38; -11,41</t>
+          <t>-79,6; 178,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-41,71; 6,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-42,46; -1,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-52,77; -7,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-41,03; -9,46</t>
+          <t>-40,69; 232,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-35,9; -3,55</t>
+          <t>-43,43; 260,91</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-48,87; -20,96</t>
+          <t>-39,35; 316,32</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-11,43</t>
+          <t>-7,58</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-9,01</t>
+          <t>-4,06</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-13,53</t>
+          <t>-8,15</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-5,5</t>
+          <t>-6,1</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,63</t>
+          <t>-6,62</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-6,61</t>
+          <t>-9,4</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-8,43</t>
+          <t>-6,86</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-5,8</t>
+          <t>-5,28</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-10,1</t>
+          <t>-8,88</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-17,79; -5,36</t>
+          <t>-13,45; -1,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,42; -2,57</t>
+          <t>-9,65; 3,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-19,34; -7,25</t>
+          <t>-13,91; -2,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-12,64; 1,47</t>
+          <t>-12,89; 1,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,03; 4,88</t>
+          <t>-13,58; -0,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,99; 0,46</t>
+          <t>-16,35; -2,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-12,77; -3,35</t>
+          <t>-11,47; -2,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,87; -1,09</t>
+          <t>-9,84; -0,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-14,88; -5,23</t>
+          <t>-13,7; -4,88</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-43,47%</t>
+          <t>-32,36%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-34,28%</t>
+          <t>-17,32%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-51,47%</t>
+          <t>-34,77%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-22,2%</t>
+          <t>-21,96%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-10,6%</t>
+          <t>-23,84%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-26,69%</t>
+          <t>-33,85%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-33,03%</t>
+          <t>-26,89%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-22,71%</t>
+          <t>-20,71%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-39,56%</t>
+          <t>-34,82%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-60,05; -22,55</t>
+          <t>-49,85; -3,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-52,18; -10,15</t>
+          <t>-36,27; 16,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-66,84; -31,09</t>
+          <t>-53,38; -11,41</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-43,66; 8,17</t>
+          <t>-41,71; 6,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-33,02; 22,69</t>
+          <t>-42,46; -1,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-49,53; 2,36</t>
+          <t>-52,77; -7,82</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-45,77; -14,8</t>
+          <t>-41,03; -9,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-38,99; -4,88</t>
+          <t>-35,9; -3,55</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-53,41; -22,17</t>
+          <t>-48,87; -20,96</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-12,27</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-7,53</t>
+          <t>-4,54</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,58</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>25,45</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>21,16</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>19,79</t>
+          <t>3,59</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,62</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>6,05</t>
+          <t>-2,82</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7,57</t>
+          <t>2,49</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-31,99; 6,88</t>
+          <t>-8,76; 5,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-26,38; 15,55</t>
+          <t>-10,87; 2,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-26,48; 24,54</t>
+          <t>-6,49; 8,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,62; 46,79</t>
+          <t>-8,25; 6,59</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,7; 41,83</t>
+          <t>-8,95; 5,78</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,04; 37,54</t>
+          <t>-5,12; 17,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 19,31</t>
+          <t>-6,6; 3,63</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 22,18</t>
+          <t>-7,93; 2,16</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 23,01</t>
+          <t>-3,42; 9,89</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-48,33%</t>
+          <t>-9,34%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-29,67%</t>
+          <t>-22,95%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-14,11%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>809,53%</t>
+          <t>-3,49%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>673,03%</t>
+          <t>-4,56%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>629,55%</t>
+          <t>15,82%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>37,73%</t>
+          <t>-6,27%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>40,63%</t>
+          <t>-13,33%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>50,83%</t>
+          <t>11,79%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-90,9; 57,1</t>
+          <t>-38,98; 36,59</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-77,67; 130,32</t>
+          <t>-47,04; 16,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-79,6; 178,28</t>
+          <t>-27,74; 57,92</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,85; 36,9</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,27; 31,42</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,79; 91,23</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-40,69; 232,16</t>
+          <t>-27,26; 20,05</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-43,43; 260,91</t>
+          <t>-33,01; 11,75</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-39,35; 316,32</t>
+          <t>-14,99; 54,78</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>-11,43</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-4,54</t>
+          <t>-9,01</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>-13,53</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>-5,5</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-2,63</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>3,59</t>
+          <t>-6,61</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>-8,43</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-2,82</t>
+          <t>-5,8</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>-10,1</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 5,47</t>
+          <t>-17,79; -5,36</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-10,87; 2,66</t>
+          <t>-15,42; -2,57</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 8,94</t>
+          <t>-19,34; -7,25</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 6,59</t>
+          <t>-12,64; 1,47</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 5,78</t>
+          <t>-9,03; 4,88</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 17,1</t>
+          <t>-13,99; 0,46</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 3,63</t>
+          <t>-12,77; -3,35</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 2,16</t>
+          <t>-10,87; -1,09</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 9,89</t>
+          <t>-14,88; -5,23</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-9,34%</t>
+          <t>-43,47%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-22,95%</t>
+          <t>-34,28%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>-51,47%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-3,49%</t>
+          <t>-22,2%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-4,56%</t>
+          <t>-10,6%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>15,82%</t>
+          <t>-26,69%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-6,27%</t>
+          <t>-33,03%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-13,33%</t>
+          <t>-22,71%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>-39,56%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-38,98; 36,59</t>
+          <t>-60,05; -22,55</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-47,04; 16,0</t>
+          <t>-52,18; -10,15</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-27,74; 57,92</t>
+          <t>-66,84; -31,09</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-30,85; 36,9</t>
+          <t>-43,66; 8,17</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-32,27; 31,42</t>
+          <t>-33,02; 22,69</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-21,79; 91,23</t>
+          <t>-49,53; 2,36</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-27,26; 20,05</t>
+          <t>-45,77; -14,8</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-33,01; 11,75</t>
+          <t>-38,99; -4,88</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-14,99; 54,78</t>
+          <t>-53,41; -22,17</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP24_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP24_R-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-31,99; 6,88</t>
+          <t>-30,91; 11,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-26,38; 15,55</t>
+          <t>-26,54; 14,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-26,48; 24,54</t>
+          <t>-27,41; 23,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,62; 46,79</t>
+          <t>9,21; 48,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,7; 41,83</t>
+          <t>5,7; 42,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,04; 37,54</t>
+          <t>5,95; 37,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 19,31</t>
+          <t>-8,65; 20,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 22,18</t>
+          <t>-7,85; 22,73</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 23,01</t>
+          <t>-5,11; 22,75</t>
         </is>
       </c>
     </row>
@@ -791,17 +791,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-90,9; 57,1</t>
+          <t>-87,73; 99,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-77,67; 130,32</t>
+          <t>-78,7; 148,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-79,6; 178,28</t>
+          <t>-80,95; 182,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -821,17 +821,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-40,69; 232,16</t>
+          <t>-45,0; 281,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-43,43; 260,91</t>
+          <t>-42,23; 274,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-39,35; 316,32</t>
+          <t>-29,25; 307,36</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,4; 0,88</t>
+          <t>-14,97; 1,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,66; -1,47</t>
+          <t>-17,3; -1,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,39; 11,56</t>
+          <t>-14,57; 12,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-22,29; -5,31</t>
+          <t>-22,58; -3,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,5; 2,6</t>
+          <t>-15,85; 2,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-25,7; -9,75</t>
+          <t>-25,8; -8,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-16,01; -4,59</t>
+          <t>-15,61; -3,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-13,86; -2,27</t>
+          <t>-13,77; -1,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-16,69; -1,41</t>
+          <t>-17,74; -1,2</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-54,75; 5,78</t>
+          <t>-56,29; 8,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-63,17; -6,4</t>
+          <t>-63,97; -4,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-56,33; 63,73</t>
+          <t>-57,55; 77,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-64,95; -19,92</t>
+          <t>-65,16; -13,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-46,67; 10,55</t>
+          <t>-45,52; 11,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-73,91; -36,04</t>
+          <t>-74,18; -35,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-54,34; -18,45</t>
+          <t>-54,45; -16,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-48,56; -9,9</t>
+          <t>-48,19; -6,27</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-59,09; -2,52</t>
+          <t>-61,5; 0,54</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,45; -1,08</t>
+          <t>-13,97; -1,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,65; 3,22</t>
+          <t>-10,23; 2,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,91; -2,2</t>
+          <t>-14,63; -1,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-12,89; 1,01</t>
+          <t>-12,67; 0,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,58; -0,3</t>
+          <t>-13,07; -0,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,35; -2,09</t>
+          <t>-16,3; -2,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-11,47; -2,28</t>
+          <t>-11,53; -2,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,84; -0,93</t>
+          <t>-9,7; -0,85</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-13,7; -4,88</t>
+          <t>-13,49; -4,36</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-49,85; -3,5</t>
+          <t>-51,93; -6,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-36,27; 16,52</t>
+          <t>-37,86; 10,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-53,38; -11,41</t>
+          <t>-53,38; -9,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-41,71; 6,51</t>
+          <t>-41,8; 1,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-42,46; -1,17</t>
+          <t>-42,69; -0,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-52,77; -7,82</t>
+          <t>-53,89; -8,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-41,03; -9,46</t>
+          <t>-41,2; -9,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-35,9; -3,55</t>
+          <t>-35,06; -3,7</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-48,87; -20,96</t>
+          <t>-47,92; -18,14</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 5,47</t>
+          <t>-8,84; 5,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,87; 2,66</t>
+          <t>-11,45; 2,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 8,94</t>
+          <t>-5,96; 9,04</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 6,59</t>
+          <t>-8,74; 6,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 5,78</t>
+          <t>-8,02; 6,01</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 17,1</t>
+          <t>-5,12; 15,23</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 3,63</t>
+          <t>-6,17; 4,35</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 2,16</t>
+          <t>-7,66; 2,41</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 9,89</t>
+          <t>-3,51; 9,57</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-38,98; 36,59</t>
+          <t>-39,1; 35,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-47,04; 16,0</t>
+          <t>-48,84; 13,59</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-27,74; 57,92</t>
+          <t>-26,17; 55,7</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-30,85; 36,9</t>
+          <t>-32,59; 35,61</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-32,27; 31,42</t>
+          <t>-31,0; 33,6</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-21,79; 91,23</t>
+          <t>-21,16; 75,79</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-27,26; 20,05</t>
+          <t>-26,45; 24,28</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-33,01; 11,75</t>
+          <t>-32,36; 12,85</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-14,99; 54,78</t>
+          <t>-15,36; 49,4</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-17,79; -5,36</t>
+          <t>-18,7; -5,26</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-15,42; -2,57</t>
+          <t>-15,69; -3,01</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-19,34; -7,25</t>
+          <t>-19,72; -7,45</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-12,64; 1,47</t>
+          <t>-12,68; 1,62</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-9,03; 4,88</t>
+          <t>-10,14; 4,29</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-13,99; 0,46</t>
+          <t>-13,13; 0,77</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-12,77; -3,35</t>
+          <t>-12,48; -3,41</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-10,87; -1,09</t>
+          <t>-10,28; -1,39</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-14,88; -5,23</t>
+          <t>-14,74; -5,41</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-60,05; -22,55</t>
+          <t>-61,84; -22,1</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-52,18; -10,15</t>
+          <t>-53,3; -11,95</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-66,84; -31,09</t>
+          <t>-67,07; -31,27</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-43,66; 8,17</t>
+          <t>-44,41; 8,51</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-33,02; 22,69</t>
+          <t>-34,33; 21,42</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-49,53; 2,36</t>
+          <t>-46,38; 5,12</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-45,77; -14,8</t>
+          <t>-45,45; -14,04</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-38,99; -4,88</t>
+          <t>-37,49; -6,12</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-53,41; -22,17</t>
+          <t>-53,42; -22,6</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-11,07; -4,36</t>
+          <t>-10,94; -4,35</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-9,96; -3,37</t>
+          <t>-9,99; -3,4</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-10,19; -2,8</t>
+          <t>-10,14; -3,01</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-8,28; -1,05</t>
+          <t>-8,59; -1,58</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 0,31</t>
+          <t>-7,0; 0,42</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-9,78; -1,06</t>
+          <t>-9,31; -1,38</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-8,88; -3,79</t>
+          <t>-8,44; -3,78</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-7,45; -2,43</t>
+          <t>-7,4; -2,57</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-8,93; -3,24</t>
+          <t>-8,99; -3,43</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-43,41; -19,22</t>
+          <t>-43,71; -19,69</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-39,55; -15,81</t>
+          <t>-39,42; -15,76</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-40,73; -12,32</t>
+          <t>-40,78; -12,84</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-30,25; -4,38</t>
+          <t>-31,27; -6,24</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-26,46; 1,27</t>
+          <t>-25,24; 2,06</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-35,36; -4,17</t>
+          <t>-34,95; -4,42</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-34,85; -16,41</t>
+          <t>-33,28; -16,25</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-29,16; -10,78</t>
+          <t>-29,05; -10,87</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-35,06; -13,84</t>
+          <t>-35,92; -14,62</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP24_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP24_R-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-30,91; 11,33</t>
+          <t>-30,12; 7,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-26,54; 14,66</t>
+          <t>-28,98; 13,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-27,41; 23,37</t>
+          <t>-24,69; 26,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,21; 48,28</t>
+          <t>8,08; 45,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,7; 42,41</t>
+          <t>4,59; 43,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,95; 37,37</t>
+          <t>5,6; 36,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-8,65; 20,27</t>
+          <t>-6,87; 21,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 22,73</t>
+          <t>-7,29; 20,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 22,75</t>
+          <t>-6,07; 24,14</t>
         </is>
       </c>
     </row>
@@ -791,17 +791,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-87,73; 99,38</t>
+          <t>-88,3; 55,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-78,7; 148,03</t>
+          <t>-81,08; 119,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-80,95; 182,1</t>
+          <t>-78,14; 167,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-45,0; 281,56</t>
+          <t>-39,6; 275,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-42,23; 274,22</t>
+          <t>-40,93; 254,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-29,25; 307,36</t>
+          <t>-33,78; 302,38</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,97; 1,37</t>
+          <t>-14,83; 0,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,3; -1,06</t>
+          <t>-17,38; -2,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,57; 12,03</t>
+          <t>-13,82; 11,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-22,58; -3,52</t>
+          <t>-21,98; -4,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,85; 2,67</t>
+          <t>-15,38; 3,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-25,8; -8,58</t>
+          <t>-25,4; -8,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-15,61; -3,78</t>
+          <t>-15,66; -4,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-13,77; -1,48</t>
+          <t>-14,2; -2,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-17,74; -1,2</t>
+          <t>-17,08; -1,69</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-56,29; 8,49</t>
+          <t>-55,71; 5,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-63,97; -4,19</t>
+          <t>-65,79; -7,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-57,55; 77,62</t>
+          <t>-55,14; 59,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-65,16; -13,72</t>
+          <t>-64,92; -18,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-45,52; 11,14</t>
+          <t>-46,34; 14,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-74,18; -35,06</t>
+          <t>-73,34; -31,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-54,45; -16,18</t>
+          <t>-54,09; -17,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-48,19; -6,27</t>
+          <t>-49,03; -8,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-61,5; 0,54</t>
+          <t>-60,49; -3,71</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,97; -1,29</t>
+          <t>-14,16; -1,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 2,05</t>
+          <t>-10,7; 1,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,63; -1,97</t>
+          <t>-14,12; -2,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-12,67; 0,62</t>
+          <t>-12,72; 0,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,07; -0,07</t>
+          <t>-13,47; 0,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,3; -2,09</t>
+          <t>-16,3; -2,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-11,53; -2,09</t>
+          <t>-11,35; -2,38</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,7; -0,85</t>
+          <t>-9,62; -0,45</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-13,49; -4,36</t>
+          <t>-13,3; -4,71</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-51,93; -6,43</t>
+          <t>-53,13; -8,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-37,86; 10,33</t>
+          <t>-39,91; 9,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-53,38; -9,32</t>
+          <t>-52,69; -10,57</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-41,8; 1,27</t>
+          <t>-41,24; 1,9</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-42,69; -0,28</t>
+          <t>-41,57; 1,86</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-53,89; -8,23</t>
+          <t>-53,37; -10,82</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-41,2; -9,02</t>
+          <t>-41,12; -10,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-35,06; -3,7</t>
+          <t>-34,31; -1,77</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-47,92; -18,14</t>
+          <t>-48,59; -20,31</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,84; 5,43</t>
+          <t>-9,23; 5,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,45; 2,08</t>
+          <t>-11,94; 2,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 9,04</t>
+          <t>-6,43; 9,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 6,41</t>
+          <t>-8,79; 6,24</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 6,01</t>
+          <t>-8,34; 6,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 15,23</t>
+          <t>-5,02; 16,79</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 4,35</t>
+          <t>-6,56; 4,04</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 2,41</t>
+          <t>-7,64; 2,55</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 9,57</t>
+          <t>-3,26; 10,57</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-39,1; 35,53</t>
+          <t>-38,41; 32,84</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-48,84; 13,59</t>
+          <t>-48,67; 17,69</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-26,17; 55,7</t>
+          <t>-27,98; 55,84</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-32,59; 35,61</t>
+          <t>-32,6; 34,69</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-31,0; 33,6</t>
+          <t>-30,77; 36,8</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-21,16; 75,79</t>
+          <t>-21,94; 92,6</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-26,45; 24,28</t>
+          <t>-27,3; 22,14</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-32,36; 12,85</t>
+          <t>-32,43; 13,36</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-15,36; 49,4</t>
+          <t>-14,2; 59,56</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-18,7; -5,26</t>
+          <t>-17,75; -5,3</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-15,69; -3,01</t>
+          <t>-15,55; -2,49</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-19,72; -7,45</t>
+          <t>-19,9; -6,95</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-12,68; 1,62</t>
+          <t>-11,92; 1,34</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-10,14; 4,29</t>
+          <t>-9,83; 4,64</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-13,13; 0,77</t>
+          <t>-13,55; 0,29</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-12,48; -3,41</t>
+          <t>-13,0; -3,99</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-10,28; -1,39</t>
+          <t>-10,45; -0,26</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-14,74; -5,41</t>
+          <t>-14,35; -5,31</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-61,84; -22,1</t>
+          <t>-60,0; -22,91</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-53,3; -11,95</t>
+          <t>-52,28; -10,76</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-67,07; -31,27</t>
+          <t>-67,23; -28,81</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-44,41; 8,51</t>
+          <t>-42,67; 6,84</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-34,33; 21,42</t>
+          <t>-33,58; 21,5</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-46,38; 5,12</t>
+          <t>-48,69; 1,58</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-45,45; -14,04</t>
+          <t>-46,29; -15,95</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-37,49; -6,12</t>
+          <t>-37,7; -1,09</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-53,42; -22,6</t>
+          <t>-52,77; -22,41</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-10,94; -4,35</t>
+          <t>-10,8; -4,24</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-9,99; -3,4</t>
+          <t>-9,8; -3,21</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-10,14; -3,01</t>
+          <t>-10,63; -3,11</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-8,59; -1,58</t>
+          <t>-8,27; -1,5</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 0,42</t>
+          <t>-6,99; 0,59</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-9,31; -1,38</t>
+          <t>-9,33; -0,49</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-8,44; -3,78</t>
+          <t>-8,98; -3,75</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-7,4; -2,57</t>
+          <t>-7,56; -2,45</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-8,99; -3,43</t>
+          <t>-9,24; -3,28</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-43,71; -19,69</t>
+          <t>-43,15; -19,0</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-39,42; -15,76</t>
+          <t>-38,53; -14,98</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-40,78; -12,84</t>
+          <t>-42,43; -14,01</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-31,27; -6,24</t>
+          <t>-30,63; -5,89</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-25,24; 2,06</t>
+          <t>-25,37; 2,59</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-34,95; -4,42</t>
+          <t>-34,87; -2,23</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-33,28; -16,25</t>
+          <t>-35,05; -16,22</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-29,05; -10,87</t>
+          <t>-29,09; -10,77</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-35,92; -14,62</t>
+          <t>-35,59; -13,96</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP24_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP24_R-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-12,27</t>
+          <t>-7,03</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-7,53</t>
+          <t>-1,9</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,58</t>
+          <t>-10,43</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>25,45</t>
+          <t>-7,7</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>21,16</t>
+          <t>-9,07</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>19,79</t>
+          <t>-2,43</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,62</t>
+          <t>-7,38</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,05</t>
+          <t>-5,66</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,57</t>
+          <t>-6,11</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-30,12; 7,76</t>
+          <t>-15,52; 1,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-28,98; 13,74</t>
+          <t>-11,16; 7,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-24,69; 26,4</t>
+          <t>-18,34; -2,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,08; 45,84</t>
+          <t>-15,48; -0,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,59; 43,76</t>
+          <t>-17,34; -2,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,6; 36,72</t>
+          <t>-12,57; 15,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 21,5</t>
+          <t>-13,0; -1,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 20,82</t>
+          <t>-11,08; 0,14</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 24,14</t>
+          <t>-12,31; 5,46</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-48,33%</t>
+          <t>-27,93%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-29,67%</t>
+          <t>-7,53%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-14,11%</t>
+          <t>-41,41%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>809,53%</t>
+          <t>-33,37%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>673,03%</t>
+          <t>-39,33%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>629,55%</t>
+          <t>-10,53%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>37,73%</t>
+          <t>-30,65%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>40,63%</t>
+          <t>-23,52%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>50,83%</t>
+          <t>-25,37%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-88,3; 55,13</t>
+          <t>-51,65; 6,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-81,08; 119,19</t>
+          <t>-37,29; 36,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-78,14; 167,4</t>
+          <t>-62,69; -10,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,77; -3,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,56; -10,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,11; 80,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-39,6; 275,2</t>
+          <t>-47,58; -8,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-40,93; 254,35</t>
+          <t>-41,71; 0,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-33,78; 302,38</t>
+          <t>-47,95; 26,23</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6,81</t>
+          <t>-6,1</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-9,38</t>
+          <t>-6,62</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,08</t>
+          <t>-6,74</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-13,43</t>
+          <t>-7,58</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-6,47</t>
+          <t>-4,06</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-17,02</t>
+          <t>-7,11</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-9,94</t>
+          <t>-6,86</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-8,0</t>
+          <t>-5,28</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-10,74</t>
+          <t>-7,17</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,83; 0,91</t>
+          <t>-12,89; 1,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,38; -2,13</t>
+          <t>-13,58; -0,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,82; 11,09</t>
+          <t>-14,16; 3,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-21,98; -4,57</t>
+          <t>-13,45; -1,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,38; 3,34</t>
+          <t>-9,65; 3,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-25,4; -8,41</t>
+          <t>-13,16; -1,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-15,66; -4,11</t>
+          <t>-11,47; -2,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-14,2; -2,29</t>
+          <t>-9,84; -0,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-17,08; -1,69</t>
+          <t>-12,29; -2,52</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-30,1%</t>
+          <t>-21,96%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-41,51%</t>
+          <t>-23,84%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-22,49%</t>
+          <t>-24,29%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-45,45%</t>
+          <t>-32,36%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-21,91%</t>
+          <t>-17,32%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-57,6%</t>
+          <t>-30,35%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-38,39%</t>
+          <t>-26,89%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-30,89%</t>
+          <t>-20,71%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-41,47%</t>
+          <t>-28,12%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-55,71; 5,51</t>
+          <t>-41,71; 6,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-65,79; -7,24</t>
+          <t>-42,46; -1,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-55,14; 59,94</t>
+          <t>-46,27; 14,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-64,92; -18,03</t>
+          <t>-49,85; -3,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-46,34; 14,62</t>
+          <t>-36,27; 16,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-73,34; -31,74</t>
+          <t>-50,19; -5,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-54,09; -17,75</t>
+          <t>-41,03; -9,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-49,03; -8,91</t>
+          <t>-35,9; -3,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-60,49; -3,71</t>
+          <t>-44,25; -10,24</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-7,58</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,06</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-8,15</t>
+          <t>12,34</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-6,1</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-6,62</t>
+          <t>-4,54</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-9,4</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-6,86</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-5,28</t>
+          <t>-2,82</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-8,88</t>
+          <t>7,77</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,16; -1,99</t>
+          <t>-8,25; 6,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,7; 1,81</t>
+          <t>-8,95; 5,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,12; -2,27</t>
+          <t>-1,73; 40,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-12,72; 0,49</t>
+          <t>-8,76; 5,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,47; 0,46</t>
+          <t>-10,87; 2,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,3; -2,69</t>
+          <t>-5,04; 10,75</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-11,35; -2,38</t>
+          <t>-6,6; 3,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,62; -0,45</t>
+          <t>-7,93; 2,16</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-13,3; -4,71</t>
+          <t>0,01; 23,59</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-32,36%</t>
+          <t>-3,49%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-17,32%</t>
+          <t>-4,56%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-34,77%</t>
+          <t>54,39%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-21,96%</t>
+          <t>-9,34%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-23,84%</t>
+          <t>-22,95%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-33,85%</t>
+          <t>14,44%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-26,89%</t>
+          <t>-6,27%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-20,71%</t>
+          <t>-13,33%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-34,82%</t>
+          <t>36,73%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-53,13; -8,76</t>
+          <t>-30,85; 36,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-39,91; 9,04</t>
+          <t>-32,27; 31,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-52,69; -10,57</t>
+          <t>-8,72; 214,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-41,24; 1,9</t>
+          <t>-38,98; 36,59</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-41,57; 1,86</t>
+          <t>-47,04; 16,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-53,37; -10,82</t>
+          <t>-22,28; 69,18</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-41,12; -10,65</t>
+          <t>-27,26; 20,05</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-34,31; -1,77</t>
+          <t>-33,01; 11,75</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-48,59; -20,31</t>
+          <t>-0,57; 116,08</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>-5,5</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-4,54</t>
+          <t>-2,63</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>-5,78</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>-11,43</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-9,01</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,59</t>
+          <t>-13,12</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>-8,43</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-2,82</t>
+          <t>-5,8</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>-9,56</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,23; 5,37</t>
+          <t>-12,64; 1,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,94; 2,32</t>
+          <t>-9,03; 4,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 9,2</t>
+          <t>-13,18; 1,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,79; 6,24</t>
+          <t>-17,79; -5,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 6,44</t>
+          <t>-15,42; -2,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 16,79</t>
+          <t>-18,98; -6,78</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 4,04</t>
+          <t>-12,77; -3,35</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 2,55</t>
+          <t>-10,87; -1,09</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 10,57</t>
+          <t>-14,36; -4,56</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-9,34%</t>
+          <t>-22,2%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-22,95%</t>
+          <t>-10,6%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>-23,33%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-3,49%</t>
+          <t>-43,47%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-4,56%</t>
+          <t>-34,28%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>15,82%</t>
+          <t>-49,89%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-6,27%</t>
+          <t>-33,03%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-13,33%</t>
+          <t>-22,71%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>-37,47%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-38,41; 32,84</t>
+          <t>-43,66; 8,17</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-48,67; 17,69</t>
+          <t>-33,02; 22,69</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-27,98; 55,84</t>
+          <t>-47,07; 7,09</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-32,6; 34,69</t>
+          <t>-60,05; -22,55</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-30,77; 36,8</t>
+          <t>-52,18; -10,15</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-21,94; 92,6</t>
+          <t>-65,7; -29,1</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-27,3; 22,14</t>
+          <t>-45,77; -14,8</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-32,43; 13,36</t>
+          <t>-38,99; -4,88</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-14,2; 59,56</t>
+          <t>-51,65; -19,03</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-11,43</t>
+          <t>-4,97</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-9,01</t>
+          <t>-3,34</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-13,53</t>
+          <t>-1,89</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-5,5</t>
+          <t>-7,47</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-2,63</t>
+          <t>-6,61</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-6,61</t>
+          <t>-5,53</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-8,43</t>
+          <t>-6,25</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-5,8</t>
+          <t>-5,01</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-10,1</t>
+          <t>-3,86</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-17,75; -5,3</t>
+          <t>-8,28; -1,05</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-15,55; -2,49</t>
+          <t>-7,23; 0,31</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-19,9; -6,95</t>
+          <t>-6,82; 9,66</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-11,92; 1,34</t>
+          <t>-11,07; -4,36</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 4,64</t>
+          <t>-9,96; -3,37</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-13,55; 0,29</t>
+          <t>-9,11; -0,8</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-13,0; -3,99</t>
+          <t>-8,88; -3,79</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-10,45; -0,26</t>
+          <t>-7,45; -2,43</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-14,35; -5,31</t>
+          <t>-6,89; 1,32</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-43,47%</t>
+          <t>-19,64%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-34,28%</t>
+          <t>-13,19%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-51,47%</t>
+          <t>-7,45%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-22,2%</t>
+          <t>-31,9%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-10,6%</t>
+          <t>-28,24%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-26,69%</t>
+          <t>-23,61%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-33,03%</t>
+          <t>-25,68%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-22,71%</t>
+          <t>-20,61%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-39,56%</t>
+          <t>-15,87%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-60,0; -22,91</t>
+          <t>-30,25; -4,38</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-52,28; -10,76</t>
+          <t>-26,46; 1,27</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-67,23; -28,81</t>
+          <t>-25,93; 38,39</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-42,67; 6,84</t>
+          <t>-43,41; -19,22</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-33,58; 21,5</t>
+          <t>-39,55; -15,81</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-48,69; 1,58</t>
+          <t>-36,35; -2,86</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-46,29; -15,95</t>
+          <t>-34,85; -16,41</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-37,7; -1,09</t>
+          <t>-29,16; -10,78</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-52,77; -22,41</t>
+          <t>-27,43; 5,63</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-7,47</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-6,61</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-6,9</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-4,97</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-3,34</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-5,75</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>-6,25</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-5,01</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-6,38</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-10,8; -4,24</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-9,8; -3,21</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-10,63; -3,11</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-8,27; -1,5</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-6,99; 0,59</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-9,33; -0,49</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-8,98; -3,75</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-7,56; -2,45</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-9,24; -3,28</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-31,9%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-28,24%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-29,48%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-19,64%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-13,19%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-22,74%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>-25,68%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-20,61%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-26,21%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-43,15; -19,0</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-38,53; -14,98</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-42,43; -14,01</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-30,63; -5,89</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-25,37; 2,59</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-34,87; -2,23</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-35,05; -16,22</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-29,09; -10,77</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-35,59; -13,96</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
